--- a/疲勞量表/70.xlsx
+++ b/疲勞量表/70.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -617,6 +617,19 @@
       <c r="G8" s="19" t="n"/>
       <c r="L8" s="20" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>05/06-05/12 T2</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n"/>
+      <c r="L9" s="20" t="inlineStr">
+        <is>
+          <t>*太輕鬆囉，週末去動動la~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/70.xlsx
+++ b/疲勞量表/70.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -630,6 +630,20 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>05/13-05/19 T2</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="15" t="n"/>
+      <c r="L10" s="20" t="inlineStr">
+        <is>
+          <t>*太輕鬆囉，週末去動動la~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/70.xlsx
+++ b/疲勞量表/70.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -644,6 +644,19 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>05/20-05/26 T2</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="n"/>
+      <c r="L11" s="20" t="inlineStr">
+        <is>
+          <t>*太輕鬆囉，週末去動動la~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/70.xlsx
+++ b/疲勞量表/70.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11175" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -657,6 +657,19 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>05/27-06/02 T2</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="n"/>
+      <c r="L12" s="20" t="inlineStr">
+        <is>
+          <t>*太輕鬆囉，週末去動動la~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/70.xlsx
+++ b/疲勞量表/70.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -670,6 +670,19 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>06/03-06/09 T2實習第二週</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>*太輕鬆囉，週末去動動la~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>
